--- a/Excel visualization/Portfolio Optimization spreadsheet for presentation v1.xlsx
+++ b/Excel visualization/Portfolio Optimization spreadsheet for presentation v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3a873f7f057fbc28/Harrisburg U Summer/Meetup Presentation/Our-Talk-About-D-Wave/Our-Talk-About-D-Wave/Excel visualization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18940" documentId="8_{FA6FA3DB-E0FF-40E7-8EEB-3109E92E3891}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0686B48E-FCEB-470D-B323-CF4382E4915C}"/>
+  <xr:revisionPtr revIDLastSave="23561" documentId="8_{FA6FA3DB-E0FF-40E7-8EEB-3109E92E3891}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{191865E1-B2E7-48E6-85B5-31F86F416718}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1560" yWindow="885" windowWidth="26490" windowHeight="14040" tabRatio="1000" activeTab="4" xr2:uid="{46B799E2-0A27-40D3-A8A1-9C2CEDCF0BFD}"/>
+    <workbookView xWindow="2415" yWindow="-14805" windowWidth="26490" windowHeight="14040" tabRatio="1000" activeTab="4" xr2:uid="{46B799E2-0A27-40D3-A8A1-9C2CEDCF0BFD}"/>
   </bookViews>
   <sheets>
     <sheet name="Random numbers" sheetId="11" r:id="rId1"/>
@@ -238,9 +238,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="166" formatCode="0.00000"/>
-    <numFmt numFmtId="167" formatCode="0.0000"/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -367,9 +367,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="3"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Calculation" xfId="2" builtinId="22"/>
@@ -1208,83 +1208,83 @@
       </c>
       <c r="B2">
         <f ca="1">2*RAND()-1</f>
-        <v>0.64935979106479791</v>
+        <v>0.24481717376996404</v>
       </c>
       <c r="C2">
         <f t="shared" ref="C2:U15" ca="1" si="0">2*RAND()-1</f>
-        <v>0.21446285926630293</v>
+        <v>-0.70690588157850454</v>
       </c>
       <c r="D2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.51293881238784156</v>
+        <v>-0.86250027679865915</v>
       </c>
       <c r="E2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.43276710373695493</v>
+        <v>-0.98746094942692064</v>
       </c>
       <c r="F2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.50045561245241132</v>
+        <v>0.43969431374596391</v>
       </c>
       <c r="G2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.33247532864118723</v>
+        <v>-0.56139324836307036</v>
       </c>
       <c r="H2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.96367587562005141</v>
+        <v>-0.95051387626229911</v>
       </c>
       <c r="I2">
         <f t="shared" ca="1" si="0"/>
-        <v>-8.7157338024837605E-2</v>
+        <v>-0.6309735655370472</v>
       </c>
       <c r="J2">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.75908162100318344</v>
+        <v>-0.9125121639265692</v>
       </c>
       <c r="K2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19211961646985887</v>
+        <v>0.66182644991723372</v>
       </c>
       <c r="L2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.81652407369560431</v>
+        <v>-9.134597498867647E-2</v>
       </c>
       <c r="M2">
         <f t="shared" ca="1" si="0"/>
-        <v>5.4921056795196099E-2</v>
+        <v>-0.19937644391059228</v>
       </c>
       <c r="N2">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.23046203703444945</v>
+        <v>5.8794745806072246E-3</v>
       </c>
       <c r="O2">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.90402241441105602</v>
+        <v>-0.15777077716885524</v>
       </c>
       <c r="P2">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.37879956688526129</v>
+        <v>0.33734357007054294</v>
       </c>
       <c r="Q2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.790467944798533</v>
+        <v>0.58747070553518954</v>
       </c>
       <c r="R2">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.70885046884925629</v>
+        <v>-0.64474355532857741</v>
       </c>
       <c r="S2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.81870041836020047</v>
+        <v>-0.82798971805008548</v>
       </c>
       <c r="T2">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.1334914753516645</v>
+        <v>-9.3630384393297295E-2</v>
       </c>
       <c r="U2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.64519040757397783</v>
+        <v>-0.30611712296856419</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
@@ -1293,83 +1293,83 @@
       </c>
       <c r="B3">
         <f t="shared" ref="B3:Q21" ca="1" si="1">2*RAND()-1</f>
-        <v>0.80177776355499009</v>
+        <v>0.81691247664476796</v>
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14948012052624415</v>
+        <v>-0.44485116315121198</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19267717125159911</v>
+        <v>-0.24444823743077815</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.10830289542647398</v>
+        <v>0.44484937367239397</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.907540671315382E-2</v>
+        <v>-0.68012405616003035</v>
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.36797711055973426</v>
+        <v>-0.26199329718420294</v>
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.6103050207916394</v>
+        <v>0.31126769120538977</v>
       </c>
       <c r="I3">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.35964432485485265</v>
+        <v>-0.75537359478066723</v>
       </c>
       <c r="J3">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.18684727223533248</v>
+        <v>0.98212631370922865</v>
       </c>
       <c r="K3">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.45683715552198212</v>
+        <v>-0.84595059908506065</v>
       </c>
       <c r="L3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.64857350307868478</v>
+        <v>0.25348563100277621</v>
       </c>
       <c r="M3">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.9845055450753748</v>
+        <v>0.92248265182868461</v>
       </c>
       <c r="N3">
         <f t="shared" ca="1" si="0"/>
-        <v>-8.3518725339720268E-2</v>
+        <v>0.53437688146226914</v>
       </c>
       <c r="O3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.77206299947560497</v>
+        <v>-0.59630681220099069</v>
       </c>
       <c r="P3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.90123728748491017</v>
+        <v>-0.93669094800743946</v>
       </c>
       <c r="Q3">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.58863331684111175</v>
+        <v>0.13440660674893978</v>
       </c>
       <c r="R3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.80210522611748081</v>
+        <v>0.564023948758551</v>
       </c>
       <c r="S3">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.3255282007025746</v>
+        <v>-0.6294390582842444</v>
       </c>
       <c r="T3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.99590503179818457</v>
+        <v>-0.10375554855081837</v>
       </c>
       <c r="U3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83546942588373097</v>
+        <v>0.26825002696459044</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
@@ -1378,83 +1378,83 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="1"/>
-        <v>6.5047997918941558E-2</v>
+        <v>0.8590283724457759</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.51987371905482882</v>
+        <v>0.24964824172152156</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.6938628419810344E-2</v>
+        <v>0.3119068679898882</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.33195178343045373</v>
+        <v>-0.35705836551278747</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="0"/>
-        <v>9.8859234231038595E-2</v>
+        <v>0.89086135786500775</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.43420191401492092</v>
+        <v>-0.67371170701706529</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="0"/>
-        <v>-8.1096381276740459E-2</v>
+        <v>-0.2928905990707571</v>
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.4555101072520245E-2</v>
+        <v>0.50877937097080927</v>
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="0"/>
-        <v>4.0579811230846863E-2</v>
+        <v>-0.63170511487076975</v>
       </c>
       <c r="K4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.71745461422015966</v>
+        <v>-0.17162042881504469</v>
       </c>
       <c r="L4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.8551761795257975</v>
+        <v>-0.41605886403234971</v>
       </c>
       <c r="M4">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.53136776964175647</v>
+        <v>0.64798228899831734</v>
       </c>
       <c r="N4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.46352766918175248</v>
+        <v>-0.43429776325328717</v>
       </c>
       <c r="O4">
         <f t="shared" ca="1" si="0"/>
-        <v>2.2900717013698557E-2</v>
+        <v>0.40545036094511078</v>
       </c>
       <c r="P4">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.95154131952311638</v>
+        <v>-8.1329481215675514E-2</v>
       </c>
       <c r="Q4">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.17647361382776561</v>
+        <v>-0.88648437430150828</v>
       </c>
       <c r="R4">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.31441746692645922</v>
+        <v>0.906483564626823</v>
       </c>
       <c r="S4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.97904019403017095</v>
+        <v>-2.8667183651228001E-2</v>
       </c>
       <c r="T4">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.28265821080125098</v>
+        <v>0.43498182313575873</v>
       </c>
       <c r="U4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.22045806139166291</v>
+        <v>-0.63953919699099071</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
@@ -1463,83 +1463,83 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.60427381317126572</v>
+        <v>0.28623938663627868</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.64843916728159146</v>
+        <v>-0.25778479390573517</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.24050105028318924</v>
+        <v>-0.94943196619036585</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.44979863371073181</v>
+        <v>-0.24946447077884915</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.48456532303384869</v>
+        <v>-0.85238066696314063</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.8601398252787957E-2</v>
+        <v>0.90699886295836429</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.86466708622975852</v>
+        <v>-0.85485995023419092</v>
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.48613548402941831</v>
+        <v>-0.15339090684037515</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.6432606729635244</v>
+        <v>-0.93152900977663511</v>
       </c>
       <c r="K5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.40114969198085082</v>
+        <v>-0.77778281778602176</v>
       </c>
       <c r="L5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.20020107593038095</v>
+        <v>-0.44296430824606547</v>
       </c>
       <c r="M5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.65977948206881476</v>
+        <v>-0.68905922430659694</v>
       </c>
       <c r="N5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35110812852013984</v>
+        <v>-5.9861319015746206E-2</v>
       </c>
       <c r="O5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4425558299631065</v>
+        <v>-2.3922904120362798E-2</v>
       </c>
       <c r="P5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.33789325945331372</v>
+        <v>0.9416332598210102</v>
       </c>
       <c r="Q5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.53616221451061197</v>
+        <v>0.92825377224088856</v>
       </c>
       <c r="R5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.78182067901082175</v>
+        <v>-0.88863411981000184</v>
       </c>
       <c r="S5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.88753030783419762</v>
+        <v>6.9912067023429891E-2</v>
       </c>
       <c r="T5">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.8409652989487295E-2</v>
+        <v>-0.71067279555565865</v>
       </c>
       <c r="U5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.61921638914576693</v>
+        <v>0.62398216569698794</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
@@ -1548,83 +1548,83 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="1"/>
-        <v>0.73439684808451577</v>
+        <v>-0.25829003775221615</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.69049571391458908</v>
+        <v>8.0065534064803989E-2</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.24935192663645589</v>
+        <v>-0.45846476735690977</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83335271179277548</v>
+        <v>-0.98331142673561467</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.77391858344122455</v>
+        <v>0.1010288411774618</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.94628055362315622</v>
+        <v>-0.26881530704577905</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.23431165202251392</v>
+        <v>0.95953885984124865</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.58976025091202211</v>
+        <v>-0.83858475098485541</v>
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.29818579344106166</v>
+        <v>-0.72215338850354294</v>
       </c>
       <c r="K6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1415370702327674</v>
+        <v>-0.17914487824402658</v>
       </c>
       <c r="L6">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.81680702642871306</v>
+        <v>-0.88480294056636111</v>
       </c>
       <c r="M6">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.70809839458457757</v>
+        <v>-0.76017235352744184</v>
       </c>
       <c r="N6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16910854595956915</v>
+        <v>0.69163597373097252</v>
       </c>
       <c r="O6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.82763172216173841</v>
+        <v>0.37474260695236827</v>
       </c>
       <c r="P6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.78368086364282097</v>
+        <v>3.6632045176745009E-2</v>
       </c>
       <c r="Q6">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.3272805109153545E-2</v>
+        <v>0.40955204230430131</v>
       </c>
       <c r="R6">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.46209761366670499</v>
+        <v>0.2200729232118821</v>
       </c>
       <c r="S6">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.79398597378942837</v>
+        <v>0.67693048086414542</v>
       </c>
       <c r="T6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.488218815831168</v>
+        <v>0.95442584114607132</v>
       </c>
       <c r="U6">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.37446232422230552</v>
+        <v>-0.67204889567473747</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
@@ -1633,83 +1633,83 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.55516142067780838</v>
+        <v>0.91156373359109932</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.68367637941052783</v>
+        <v>-0.82055750685132267</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.50592949314797897</v>
+        <v>-0.43754295381023822</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>3.8631096295237199E-2</v>
+        <v>-0.2140211883144667</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.44118916372172157</v>
+        <v>-0.40481593642601421</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.61181925193685038</v>
+        <v>-0.28999013190359402</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.58592285618152218</v>
+        <v>0.214297083586102</v>
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.49593938635393187</v>
+        <v>-0.27225012990704589</v>
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.45513609906325003</v>
+        <v>0.28066007528343717</v>
       </c>
       <c r="K7">
         <f t="shared" ca="1" si="0"/>
-        <v>5.7153817707044308E-2</v>
+        <v>-0.81938295394384597</v>
       </c>
       <c r="L7">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.86096252986878596</v>
+        <v>0.34082186882077403</v>
       </c>
       <c r="M7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.84937569850400574</v>
+        <v>0.33065354686624415</v>
       </c>
       <c r="N7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5629371126050764</v>
+        <v>-0.64890755751759843</v>
       </c>
       <c r="O7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.27977519315814869</v>
+        <v>-0.20572232790265055</v>
       </c>
       <c r="P7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.92930710671408234</v>
+        <v>0.43963836935812517</v>
       </c>
       <c r="Q7">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.83277169907947379</v>
+        <v>0.5902892323803115</v>
       </c>
       <c r="R7">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.5421845547451507</v>
+        <v>0.5525061379650047</v>
       </c>
       <c r="S7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.57881945390330158</v>
+        <v>-0.4038792566322067</v>
       </c>
       <c r="T7">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.28949671518102571</v>
+        <v>-0.78138871032863477</v>
       </c>
       <c r="U7">
         <f t="shared" ca="1" si="0"/>
-        <v>3.2645474474419123E-2</v>
+        <v>0.49081741155290426</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
@@ -1718,83 +1718,83 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.23586768757124421</v>
+        <v>0.92913675346398694</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.4817485791508449</v>
+        <v>5.1456478946824813E-2</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25367003025492463</v>
+        <v>-0.52070926823853791</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.31715132294804227</v>
+        <v>0.20519661179230253</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47657123897440834</v>
+        <v>-0.86591388872006103</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.20993195215045479</v>
+        <v>0.41023496310101026</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12589559967472308</v>
+        <v>0.90579427305052529</v>
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.79797320716564579</v>
+        <v>0.59754445442796555</v>
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.53682741555750035</v>
+        <v>0.71131080444002337</v>
       </c>
       <c r="K8">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.17377442199403625</v>
+        <v>-0.50163237044964171</v>
       </c>
       <c r="L8">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.7074055513110209</v>
+        <v>-0.98793597943113221</v>
       </c>
       <c r="M8">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.52700344015939748</v>
+        <v>-0.87506260774109523</v>
       </c>
       <c r="N8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.80607925652421786</v>
+        <v>-0.6496760379333284</v>
       </c>
       <c r="O8">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.15885897483732658</v>
+        <v>-0.56272617390624746</v>
       </c>
       <c r="P8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.65364041600074163</v>
+        <v>8.7656545017969378E-2</v>
       </c>
       <c r="Q8">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.70429867595066709</v>
+        <v>-0.65652442868135763</v>
       </c>
       <c r="R8">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.49218126206437596</v>
+        <v>1.7593162510733729E-2</v>
       </c>
       <c r="S8">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.19800538536933288</v>
+        <v>0.22226438482915656</v>
       </c>
       <c r="T8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11901865720757798</v>
+        <v>-0.82646159329106816</v>
       </c>
       <c r="U8">
         <f t="shared" ca="1" si="0"/>
-        <v>8.7195365706350669E-2</v>
+        <v>0.98250021901970519</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
@@ -1803,83 +1803,83 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.33840673958903489</v>
+        <v>-0.56597095216087978</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.60309151241226422</v>
+        <v>0.13271985731690239</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.92559000824307147</v>
+        <v>0.19210411809698136</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.78036635847129943</v>
+        <v>-0.13878213948992291</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83033145400629449</v>
+        <v>-0.87426526477944999</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.53905041810979659</v>
+        <v>0.88453574959424519</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.82885880595547023</v>
+        <v>0.42570220207780785</v>
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.11344013866400937</v>
+        <v>0.49896288428401503</v>
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.70537696397510485</v>
+        <v>-0.71385708074453214</v>
       </c>
       <c r="K9">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.58122502420674937</v>
+        <v>-0.38857356653309338</v>
       </c>
       <c r="L9">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.96894390625811844</v>
+        <v>0.56927671374780831</v>
       </c>
       <c r="M9">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.6839894419261463</v>
+        <v>0.84577479320016913</v>
       </c>
       <c r="N9">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.66656148824959249</v>
+        <v>0.84600644458955254</v>
       </c>
       <c r="O9">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.80691304794521868</v>
+        <v>-0.19361154557563998</v>
       </c>
       <c r="P9">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.8891405950617115</v>
+        <v>0.17317958619168294</v>
       </c>
       <c r="Q9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19360675036247543</v>
+        <v>0.12930371751779512</v>
       </c>
       <c r="R9">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.49138205190551942</v>
+        <v>0.37095745104341393</v>
       </c>
       <c r="S9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.20776883033109295</v>
+        <v>-0.71924859798394492</v>
       </c>
       <c r="T9">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.77413938534302806</v>
+        <v>0.41963289637830847</v>
       </c>
       <c r="U9">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.98938908962087924</v>
+        <v>0.89507802466285757</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
@@ -1888,83 +1888,83 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.32222616863863807</v>
+        <v>0.59304183738363925</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.8732988256866947</v>
+        <v>0.95321634173709358</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.16070799671556069</v>
+        <v>0.19131326778120661</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.68127345351545343</v>
+        <v>-0.42509851412596023</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="0"/>
-        <v>6.9598667459077168E-2</v>
+        <v>-0.74356195090565813</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.59387511218967126</v>
+        <v>-8.2140142329286681E-2</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.21305931276746626</v>
+        <v>-0.86811350422981626</v>
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.97955765311478737</v>
+        <v>-0.82177464243292597</v>
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.37165400413098104</v>
+        <v>0.29395396028896958</v>
       </c>
       <c r="K10">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.79290613706126933</v>
+        <v>-0.21676615712480962</v>
       </c>
       <c r="L10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.31395827113618746</v>
+        <v>0.84659981749390623</v>
       </c>
       <c r="M10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.97354126695964815</v>
+        <v>0.75561537990089822</v>
       </c>
       <c r="N10">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.49766365573745297</v>
+        <v>-0.8204546349323778</v>
       </c>
       <c r="O10">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.92750490697610788</v>
+        <v>7.4438166710442566E-2</v>
       </c>
       <c r="P10">
         <f t="shared" ca="1" si="0"/>
-        <v>1.065098956235766E-2</v>
+        <v>-0.71560552586921333</v>
       </c>
       <c r="Q10">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.82622344018624583</v>
+        <v>-2.3843792754134618E-3</v>
       </c>
       <c r="R10">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.32787787952342917</v>
+        <v>-0.10661093991145965</v>
       </c>
       <c r="S10">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.94942735504942544</v>
+        <v>7.0970371387362841E-2</v>
       </c>
       <c r="T10">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.82924208952852796</v>
+        <v>-0.71704683797644697</v>
       </c>
       <c r="U10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.96336709952744037</v>
+        <v>0.98274818085694471</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
@@ -1973,83 +1973,83 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.92853723017618495</v>
+        <v>0.44534840443367618</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.11249941307205535</v>
+        <v>0.26581899314853219</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.16518490161238231</v>
+        <v>0.97698963448630338</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.5045022698602839</v>
+        <v>0.60319527718000532</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.41948013463670653</v>
+        <v>-0.46720472330692098</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.64567953829237323</v>
+        <v>-8.3367877563453208E-2</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.59222806692077135</v>
+        <v>0.70015237763894334</v>
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.59383761444549199</v>
+        <v>0.38696795440393039</v>
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.20129054670643343</v>
+        <v>-0.22534225809531128</v>
       </c>
       <c r="K11">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.99191007901240513</v>
+        <v>-0.38173393019945823</v>
       </c>
       <c r="L11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.74405080497287734</v>
+        <v>-0.79351811907476621</v>
       </c>
       <c r="M11">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2741969954051413E-2</v>
+        <v>-0.61641978558472887</v>
       </c>
       <c r="N11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10328610415064721</v>
+        <v>0.27026833417653795</v>
       </c>
       <c r="O11">
         <f t="shared" ca="1" si="0"/>
-        <v>5.8300568021971699E-2</v>
+        <v>-0.80798525693359036</v>
       </c>
       <c r="P11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12776482622370322</v>
+        <v>0.28442797897326888</v>
       </c>
       <c r="Q11">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.93478200028385317</v>
+        <v>0.60348914508498974</v>
       </c>
       <c r="R11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.69641966162929969</v>
+        <v>6.5798211377060989E-2</v>
       </c>
       <c r="S11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15397609515951793</v>
+        <v>0.38280182357261672</v>
       </c>
       <c r="T11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.56222019529306233</v>
+        <v>0.84058974769397321</v>
       </c>
       <c r="U11">
         <f t="shared" ca="1" si="0"/>
-        <v>7.9982078887669283E-2</v>
+        <v>-0.47500050603249377</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
@@ -2058,83 +2058,83 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.43131099892765534</v>
+        <v>-0.11878706240361758</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19623627363083918</v>
+        <v>0.33609061260121664</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.7272130395960168</v>
+        <v>0.13151688221471947</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.56169771025247983</v>
+        <v>-3.200340463078577E-2</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.69650389656538336</v>
+        <v>0.74689456566287893</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.72775408129870045</v>
+        <v>-0.5574365120439948</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.3407573999696234</v>
+        <v>-0.46075705633692787</v>
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.43859484616095967</v>
+        <v>0.28190201740580445</v>
       </c>
       <c r="J12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.57434403076370577</v>
+        <v>-0.70691879845666206</v>
       </c>
       <c r="K12">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.35454116406890046</v>
+        <v>-0.55993749755670974</v>
       </c>
       <c r="L12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.43180715635084166</v>
+        <v>-0.3417854819970747</v>
       </c>
       <c r="M12">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.8948794232661661</v>
+        <v>-0.24097415115465037</v>
       </c>
       <c r="N12">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.18227596820417458</v>
+        <v>-0.40099640359984123</v>
       </c>
       <c r="O12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.62406607788043322</v>
+        <v>0.15120257625675393</v>
       </c>
       <c r="P12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.67004783309632554</v>
+        <v>0.94000913989682933</v>
       </c>
       <c r="Q12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.73862973055188719</v>
+        <v>0.96619676960006862</v>
       </c>
       <c r="R12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28316963710744814</v>
+        <v>0.77673644782119999</v>
       </c>
       <c r="S12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.67529372308829427</v>
+        <v>0.61675378720553931</v>
       </c>
       <c r="T12">
         <f t="shared" ca="1" si="0"/>
-        <v>8.1913813205992003E-2</v>
+        <v>0.69683683699054888</v>
       </c>
       <c r="U12">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.75896954838075592</v>
+        <v>-3.5233908345328357E-2</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
@@ -2143,83 +2143,83 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.8019284806346541E-2</v>
+        <v>0.28010371334409778</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.75070063838397827</v>
+        <v>0.90357632286601142</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.71465218430846855</v>
+        <v>-0.34108551497370487</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.8455115518662244</v>
+        <v>0.31148832616763711</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.50733561196327859</v>
+        <v>-0.43896142024289309</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="0"/>
-        <v>-8.4281544879883041E-2</v>
+        <v>0.92759164332876609</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.6130189466194722</v>
+        <v>-0.32263040493146056</v>
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.67861600288236024</v>
+        <v>0.77883262385771435</v>
       </c>
       <c r="J13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.62489570243071713</v>
+        <v>-0.13274294490620764</v>
       </c>
       <c r="K13">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.96469212943185045</v>
+        <v>0.25434954429038181</v>
       </c>
       <c r="L13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.46642201887061541</v>
+        <v>0.22161598448509001</v>
       </c>
       <c r="M13">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.76589159460393241</v>
+        <v>-0.78602134508759525</v>
       </c>
       <c r="N13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25928344558522554</v>
+        <v>-0.81629474313290507</v>
       </c>
       <c r="O13">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.74969266442106663</v>
+        <v>-0.48767952357929212</v>
       </c>
       <c r="P13">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.69901931095040037</v>
+        <v>-0.99447458892133622</v>
       </c>
       <c r="Q13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47578052148860905</v>
+        <v>-0.56529945449814156</v>
       </c>
       <c r="R13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.76429602186929135</v>
+        <v>-0.5661102548456336</v>
       </c>
       <c r="S13">
         <f t="shared" ca="1" si="0"/>
-        <v>4.687759565575611E-2</v>
+        <v>-0.51231768204863837</v>
       </c>
       <c r="T13">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.29768500622866645</v>
+        <v>-0.20247483562597912</v>
       </c>
       <c r="U13">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.15652589993277277</v>
+        <v>-0.51197232296488537</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
@@ -2228,83 +2228,83 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.79027562515350169</v>
+        <v>0.12853259388020599</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.3939122615901347</v>
+        <v>0.18556626497905748</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.89138195051390667</v>
+        <v>0.79439152927982382</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.5253235537241745</v>
+        <v>-0.64527135098452493</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.77449367723307505</v>
+        <v>-0.95836658885808057</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="0"/>
-        <v>4.5898671257629253E-2</v>
+        <v>-0.9086132842200314</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.97997697192013988</v>
+        <v>0.2158248761676782</v>
       </c>
       <c r="I14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.74576142349912655</v>
+        <v>0.94737342043790651</v>
       </c>
       <c r="J14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.44584622238984695</v>
+        <v>0.34388611117688939</v>
       </c>
       <c r="K14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.82548623886314099</v>
+        <v>0.43445803341027966</v>
       </c>
       <c r="L14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25109543206629592</v>
+        <v>-0.45304311176112022</v>
       </c>
       <c r="M14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.71796329058794028</v>
+        <v>0.21153929984826725</v>
       </c>
       <c r="N14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.45537880862797331</v>
+        <v>1.1818349347199941E-2</v>
       </c>
       <c r="O14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.35110815228343961</v>
+        <v>-0.87385689461092531</v>
       </c>
       <c r="P14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.78532441948403364</v>
+        <v>0.98120495831283172</v>
       </c>
       <c r="Q14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.38460255905820961</v>
+        <v>0.78772491334513939</v>
       </c>
       <c r="R14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.85422485970189777</v>
+        <v>0.7741964167702946</v>
       </c>
       <c r="S14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.40558164413015341</v>
+        <v>0.49640200665243817</v>
       </c>
       <c r="T14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.58049047616097749</v>
+        <v>-0.77735844409000343</v>
       </c>
       <c r="U14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.53936148730734268</v>
+        <v>0.22354189354435561</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
@@ -2313,83 +2313,83 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="1"/>
-        <v>0.7371791747917531</v>
+        <v>-0.77235764559510711</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.65984479834577026</v>
+        <v>-0.89047139418756838</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.6054560649205103</v>
+        <v>0.77897160865748827</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.67131807383061348</v>
+        <v>-3.7531493390088988E-2</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.81419307752906578</v>
+        <v>-0.6957098290350161</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.71189720163297254</v>
+        <v>0.68057026964271894</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.19125800075535704</v>
+        <v>-0.68261193377970719</v>
       </c>
       <c r="I15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2090878362037738</v>
+        <v>0.79476542222282087</v>
       </c>
       <c r="J15">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.13026271890092667</v>
+        <v>-0.4146456913371217</v>
       </c>
       <c r="K15">
         <f t="shared" ref="K15:U21" ca="1" si="2">2*RAND()-1</f>
-        <v>0.63973184264007665</v>
+        <v>0.64430111214578467</v>
       </c>
       <c r="L15">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.9752225378328212</v>
+        <v>0.13714268133452401</v>
       </c>
       <c r="M15">
         <f t="shared" ca="1" si="2"/>
-        <v>0.25194229674969759</v>
+        <v>0.56576685442982533</v>
       </c>
       <c r="N15">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.82845131983737996</v>
+        <v>0.54670543223141155</v>
       </c>
       <c r="O15">
         <f t="shared" ca="1" si="2"/>
-        <v>0.34311606170887399</v>
+        <v>0.31097373388684213</v>
       </c>
       <c r="P15">
         <f t="shared" ca="1" si="2"/>
-        <v>0.78849799854166558</v>
+        <v>0.79897725944315878</v>
       </c>
       <c r="Q15">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.37765022862388054</v>
+        <v>0.10319092684009012</v>
       </c>
       <c r="R15">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.88379985205831346</v>
+        <v>-0.96883101166625485</v>
       </c>
       <c r="S15">
         <f t="shared" ca="1" si="2"/>
-        <v>0.68494085767255086</v>
+        <v>0.95047724537076594</v>
       </c>
       <c r="T15">
         <f t="shared" ca="1" si="2"/>
-        <v>0.59338910275377899</v>
+        <v>0.95423077375975596</v>
       </c>
       <c r="U15">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.1517989333875629</v>
+        <v>-0.19893413430610307</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
@@ -2398,83 +2398,83 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="1"/>
-        <v>0.90783770904601857</v>
+        <v>-0.1834507241686556</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.1461741622875943E-2</v>
+        <v>-0.51011469910684393</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="1"/>
-        <v>0.58246728787682023</v>
+        <v>-0.21220216099324629</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="1"/>
-        <v>0.53820978651699947</v>
+        <v>0.61559446602054346</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.2826584780630621</v>
+        <v>-0.32971928716038335</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="1"/>
-        <v>1.6846865558632906E-3</v>
+        <v>0.65963975067955638</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.49336898102919702</v>
+        <v>0.85369883652672529</v>
       </c>
       <c r="I16">
         <f t="shared" ca="1" si="1"/>
-        <v>0.42699843309552388</v>
+        <v>-5.4895966488023085E-2</v>
       </c>
       <c r="J16">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.52542793260262544</v>
+        <v>-0.22508269662721214</v>
       </c>
       <c r="K16">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.76226699432216627</v>
+        <v>-0.41362896241774361</v>
       </c>
       <c r="L16">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.86209206968565644</v>
+        <v>-0.86277896820137046</v>
       </c>
       <c r="M16">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.22159357572292304</v>
+        <v>-0.2693178413329238</v>
       </c>
       <c r="N16">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.35330343913265994</v>
+        <v>-0.74599171281147814</v>
       </c>
       <c r="O16">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.55986851262682147</v>
+        <v>-0.8874394391566709</v>
       </c>
       <c r="P16">
         <f t="shared" ca="1" si="1"/>
-        <v>0.23184901912557487</v>
+        <v>0.26883929175071608</v>
       </c>
       <c r="Q16">
         <f t="shared" ca="1" si="1"/>
-        <v>0.43002411326890377</v>
+        <v>0.49716397463235773</v>
       </c>
       <c r="R16">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.55490874233809828</v>
+        <v>0.34686845673486966</v>
       </c>
       <c r="S16">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.7831204640383338</v>
+        <v>0.39300705218798204</v>
       </c>
       <c r="T16">
         <f t="shared" ca="1" si="2"/>
-        <v>0.37070844124815316</v>
+        <v>-0.89378658911165587</v>
       </c>
       <c r="U16">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.35958022719601601</v>
+        <v>-0.38560295493194219</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
@@ -2483,83 +2483,83 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.55889248338715092</v>
+        <v>0.40719913793988693</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
-        <v>9.7973566275986856E-2</v>
+        <v>-0.49204823821859978</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.38646277079409797</v>
+        <v>-0.31921905296798303</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.60595602385226632</v>
+        <v>-0.47067026326698946</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.12024976296028123</v>
+        <v>-0.27463855544702054</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.99365110488516328</v>
+        <v>0.36390688085591827</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.26293613556868634</v>
+        <v>0.18398709068203067</v>
       </c>
       <c r="I17">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.9635785726811259</v>
+        <v>0.22482673277384979</v>
       </c>
       <c r="J17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.2896468873201925</v>
+        <v>-0.45525725343142298</v>
       </c>
       <c r="K17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.43412105018368163</v>
+        <v>-0.66759347599428875</v>
       </c>
       <c r="L17">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.43777418884998798</v>
+        <v>0.80550594336284931</v>
       </c>
       <c r="M17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.78197719485556316</v>
+        <v>-0.29030683167789717</v>
       </c>
       <c r="N17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.14538993438602987</v>
+        <v>0.96690822509880459</v>
       </c>
       <c r="O17">
         <f t="shared" ca="1" si="1"/>
-        <v>-9.7696288487758576E-3</v>
+        <v>0.29203271476399961</v>
       </c>
       <c r="P17">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.82713185212400164</v>
+        <v>-0.65472554133462246</v>
       </c>
       <c r="Q17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.29232488412108437</v>
+        <v>0.77855023852029492</v>
       </c>
       <c r="R17">
         <f t="shared" ca="1" si="2"/>
-        <v>0.75147234595945878</v>
+        <v>8.8713316225710104E-2</v>
       </c>
       <c r="S17">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.45521829595693419</v>
+        <v>0.74989173858778746</v>
       </c>
       <c r="T17">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.26895913032315244</v>
+        <v>-6.8889178185330469E-2</v>
       </c>
       <c r="U17">
         <f t="shared" ca="1" si="2"/>
-        <v>0.94812673796128699</v>
+        <v>0.27575568860680844</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
@@ -2568,83 +2568,83 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.49797848517913801</v>
+        <v>-0.79952788757106541</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.80459801610349979</v>
+        <v>-0.63839293633698468</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.75526441967392044</v>
+        <v>-0.22956429691518876</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.73474856169244318</v>
+        <v>0.53741406057616281</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="1"/>
-        <v>0.77517900345822488</v>
+        <v>-0.90442997241509659</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.53357668370704925</v>
+        <v>0.97113768208760387</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="1"/>
-        <v>0.15119284487625118</v>
+        <v>0.51426818789522444</v>
       </c>
       <c r="I18">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.39977461685969407</v>
+        <v>0.68381954170094206</v>
       </c>
       <c r="J18">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.49563189716704259</v>
+        <v>0.65918676717662694</v>
       </c>
       <c r="K18">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.30523874969547071</v>
+        <v>-0.70398331930955527</v>
       </c>
       <c r="L18">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.51508526662829213</v>
+        <v>0.47270189883125346</v>
       </c>
       <c r="M18">
         <f t="shared" ca="1" si="1"/>
-        <v>0.86743008803321331</v>
+        <v>1.1778358375484022E-2</v>
       </c>
       <c r="N18">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.83882485879745872</v>
+        <v>-0.18541137875355962</v>
       </c>
       <c r="O18">
         <f t="shared" ca="1" si="1"/>
-        <v>0.969783064751917</v>
+        <v>-0.32801695543561382</v>
       </c>
       <c r="P18">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.19159461982710502</v>
+        <v>-0.83460426635870077</v>
       </c>
       <c r="Q18">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.60487529276577323</v>
+        <v>-0.9378904429452295</v>
       </c>
       <c r="R18">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.52506716718483548</v>
+        <v>0.58988605675544292</v>
       </c>
       <c r="S18">
         <f t="shared" ca="1" si="2"/>
-        <v>0.62414884118893643</v>
+        <v>0.85408443794868605</v>
       </c>
       <c r="T18">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.10905875623268302</v>
+        <v>0.14068677590965417</v>
       </c>
       <c r="U18">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.53048395036064977</v>
+        <v>-0.53516106228735572</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
@@ -2653,83 +2653,83 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.9451042585034477</v>
+        <v>0.83138473891216047</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.55914621775524842</v>
+        <v>-0.52013572986049073</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.82278885867068396</v>
+        <v>-2.6898544051990658E-2</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.29071646361898273</v>
+        <v>-0.37133344409391911</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.17419108428996322</v>
+        <v>0.69434193584001558</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.57933716357917109</v>
+        <v>-0.66148565517631841</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.31739213790217602</v>
+        <v>0.84629132935069706</v>
       </c>
       <c r="I19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.35676500400977273</v>
+        <v>-0.54043313654688263</v>
       </c>
       <c r="J19">
         <f t="shared" ca="1" si="1"/>
-        <v>6.9889717826043807E-4</v>
+        <v>-0.27103380294945345</v>
       </c>
       <c r="K19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.38767138551984104</v>
+        <v>0.54335456091501388</v>
       </c>
       <c r="L19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.52284175607782513</v>
+        <v>-0.75954596206535441</v>
       </c>
       <c r="M19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.73543235859664668</v>
+        <v>-0.17049317690749199</v>
       </c>
       <c r="N19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.19944258360971556</v>
+        <v>-0.36768578191129775</v>
       </c>
       <c r="O19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.51738114999862295</v>
+        <v>-0.31835824013010616</v>
       </c>
       <c r="P19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.29011522951060043</v>
+        <v>7.2900210259138731E-2</v>
       </c>
       <c r="Q19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.9664698807780463</v>
+        <v>0.42335083890753178</v>
       </c>
       <c r="R19">
         <f t="shared" ca="1" si="2"/>
-        <v>0.144652046539685</v>
+        <v>0.69386310080247027</v>
       </c>
       <c r="S19">
         <f t="shared" ca="1" si="2"/>
-        <v>0.2604617594279135</v>
+        <v>0.13924106697143013</v>
       </c>
       <c r="T19">
         <f t="shared" ca="1" si="2"/>
-        <v>0.7674885914248919</v>
+        <v>-0.9724667758140817</v>
       </c>
       <c r="U19">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.90690642927804221</v>
+        <v>0.39134300540521294</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
@@ -2738,83 +2738,83 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="1"/>
-        <v>0.77644643367061916</v>
+        <v>0.86199474296581213</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.1779186585701602</v>
+        <v>0.84462808733888961</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="1"/>
-        <v>0.89203522257790513</v>
+        <v>-0.2753262905490732</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="1"/>
-        <v>0.23252605570007567</v>
+        <v>-0.42255520126280999</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="1"/>
-        <v>5.1203758902002239E-2</v>
+        <v>-0.54033919322064117</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.6816933841624877</v>
+        <v>0.50813486266973618</v>
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.57061739297760306</v>
+        <v>-0.22829691190916179</v>
       </c>
       <c r="I20">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.19192023643917233</v>
+        <v>-0.34789773835301641</v>
       </c>
       <c r="J20">
         <f t="shared" ca="1" si="1"/>
-        <v>0.96561363588794391</v>
+        <v>0.81069521528783195</v>
       </c>
       <c r="K20">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.89674053867718406</v>
+        <v>0.68564027064226951</v>
       </c>
       <c r="L20">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.73987746032904433</v>
+        <v>-0.23645529157185452</v>
       </c>
       <c r="M20">
         <f t="shared" ca="1" si="1"/>
-        <v>0.35219662335734103</v>
+        <v>-0.79526875196914815</v>
       </c>
       <c r="N20">
         <f t="shared" ca="1" si="1"/>
-        <v>0.82112732640518282</v>
+        <v>-0.37871998516776828</v>
       </c>
       <c r="O20">
         <f t="shared" ca="1" si="1"/>
-        <v>0.44116221786384613</v>
+        <v>0.81110691716705996</v>
       </c>
       <c r="P20">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.83723927520958119</v>
+        <v>7.1859654937445061E-3</v>
       </c>
       <c r="Q20">
         <f t="shared" ca="1" si="1"/>
-        <v>0.71265033274473977</v>
+        <v>-0.58189282064309888</v>
       </c>
       <c r="R20">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.20930161236331624</v>
+        <v>0.22156234477920522</v>
       </c>
       <c r="S20">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.3460937166562883</v>
+        <v>0.97345984041061162</v>
       </c>
       <c r="T20">
         <f t="shared" ca="1" si="2"/>
-        <v>-3.8941606994760791E-2</v>
+        <v>0.43202180957386571</v>
       </c>
       <c r="U20">
         <f t="shared" ca="1" si="2"/>
-        <v>0.79123906698825497</v>
+        <v>0.37355383413115417</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
@@ -2823,165 +2823,165 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="1"/>
-        <v>0.94540649000736487</v>
+        <v>-0.43622202351819483</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="1"/>
-        <v>0.42616441676394867</v>
+        <v>0.25274287540338336</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="1"/>
-        <v>0.55391744776666885</v>
+        <v>0.55159252622609034</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="1"/>
-        <v>6.6498735177352275E-2</v>
+        <v>-7.8793331665184096E-2</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.35624995927495973</v>
+        <v>0.40863477461598974</v>
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="1"/>
-        <v>0.65733039907876134</v>
+        <v>2.790199044228614E-2</v>
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="1"/>
-        <v>-7.5676354017227832E-2</v>
+        <v>-0.82380739835371219</v>
       </c>
       <c r="I21">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.21659689038475571</v>
+        <v>0.47600752894496523</v>
       </c>
       <c r="J21">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.91956954585781236</v>
+        <v>-0.16821627737580314</v>
       </c>
       <c r="K21">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.81980412924261215</v>
+        <v>-0.98364630690134791</v>
       </c>
       <c r="L21">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.56814807840109305</v>
+        <v>0.23780729815285961</v>
       </c>
       <c r="M21">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.39334716380989776</v>
+        <v>-0.34447298024708806</v>
       </c>
       <c r="N21">
         <f t="shared" ca="1" si="1"/>
-        <v>0.79620737553102305</v>
+        <v>-0.99665951585997981</v>
       </c>
       <c r="O21">
         <f t="shared" ca="1" si="1"/>
-        <v>0.33877759090489001</v>
+        <v>0.36666742286707876</v>
       </c>
       <c r="P21">
         <f t="shared" ca="1" si="1"/>
-        <v>0.12495375836639044</v>
+        <v>0.51446644249414031</v>
       </c>
       <c r="Q21">
         <f t="shared" ca="1" si="1"/>
-        <v>0.60506111225651349</v>
+        <v>-0.98621052365488815</v>
       </c>
       <c r="R21">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.94399440980711269</v>
+        <v>0.13636079933219425</v>
       </c>
       <c r="S21">
         <f t="shared" ca="1" si="2"/>
-        <v>0.29365214959958963</v>
+        <v>0.10498388423654914</v>
       </c>
       <c r="T21">
         <f t="shared" ca="1" si="2"/>
-        <v>0.34132260743068188</v>
+        <v>-0.16178951990043511</v>
       </c>
       <c r="U21">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.7615446989981316</v>
+        <v>-0.78392254009257645</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B22">
         <f ca="1">SUM(B2:B13)-B2</f>
-        <v>-0.18229773251471082</v>
+        <v>4.1783266256266085</v>
       </c>
       <c r="C22">
         <f ca="1">SUM(C2:C13)-C3</f>
-        <v>0.25225499279162023</v>
+        <v>1.1873442000673442</v>
       </c>
       <c r="D22">
         <f ca="1">SUM(D2:D13)-D4</f>
-        <v>1.16574484745617</v>
+        <v>-2.3222590822199836</v>
       </c>
       <c r="E22">
         <f ca="1">SUM(E2:E13)-E5</f>
-        <v>-0.4044048006837917</v>
+        <v>-1.5730063994241201</v>
       </c>
       <c r="F22">
         <f ca="1">SUM(F2:F13)-F6</f>
-        <v>3.4411437064044579</v>
+        <v>-3.2497776702303178</v>
       </c>
       <c r="G22">
         <f ca="1">SUM(G2:G13)-G7</f>
-        <v>-0.42889274198516802</v>
+        <v>0.6405031274355335</v>
       </c>
       <c r="H22">
         <f ca="1">SUM(H2:H13)-H8</f>
-        <v>2.8992017321545323</v>
+        <v>-1.1388071767159602</v>
       </c>
       <c r="I22">
         <f ca="1">SUM(I2:I13)-I9</f>
-        <v>-1.1095197961340422</v>
+        <v>-0.91832116941669284</v>
       </c>
       <c r="J22">
         <f ca="1">SUM(J2:J13)-J10</f>
-        <v>2.2236959447671287</v>
+        <v>-3.0026635658475405</v>
       </c>
       <c r="K22">
         <f ca="1">SUM(K2:K13)-K11</f>
-        <v>-1.8145612216741072</v>
+        <v>-3.5446152753306386</v>
       </c>
       <c r="L22">
         <f ca="1">SUM(L2:L13)-L12</f>
-        <v>0.69078691334350961</v>
+        <v>-1.3848261707889964</v>
       </c>
       <c r="M22">
         <f ca="1">SUM(M2:M13)-M13</f>
-        <v>-3.0990435045093321</v>
+        <v>0.12144409456920791</v>
       </c>
       <c r="N22">
         <f t="shared" ref="N22:U22" ca="1" si="3">SUM(N2:N13)-N13</f>
-        <v>0.79556494237601338</v>
+        <v>-0.66602660771223987</v>
       </c>
       <c r="O22">
         <f t="shared" ca="1" si="3"/>
-        <v>0.2299937635049929</v>
+        <v>-1.5422120869436615</v>
       </c>
       <c r="P22">
         <f t="shared" ca="1" si="3"/>
-        <v>2.1947411007081663</v>
+        <v>1.5068945394138455</v>
       </c>
       <c r="Q22">
         <f t="shared" ca="1" si="3"/>
-        <v>-1.847588911054763</v>
+        <v>2.8035688091542053</v>
       </c>
       <c r="R22">
         <f t="shared" ca="1" si="3"/>
-        <v>-0.77547609381584537</v>
+        <v>1.8341832322646305</v>
       </c>
       <c r="S22">
         <f t="shared" ca="1" si="3"/>
-        <v>0.25912149212761926</v>
+        <v>-0.56959089971945875</v>
       </c>
       <c r="T22">
         <f t="shared" ca="1" si="3"/>
-        <v>-0.11016101585899962</v>
+        <v>0.11351127524873639</v>
       </c>
       <c r="U22">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3607033403670772</v>
+        <v>2.1154363987418758</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
@@ -2990,7 +2990,7 @@
       </c>
       <c r="D24" s="6">
         <f ca="1">MIN(B2:U21)</f>
-        <v>-0.99191007901240513</v>
+        <v>-0.99665951585997981</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
@@ -2999,7 +2999,7 @@
       </c>
       <c r="D25" s="6">
         <f ca="1">MAX(B2:U21)</f>
-        <v>0.99590503179818457</v>
+        <v>0.98274818085694471</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
@@ -3008,13 +3008,13 @@
       </c>
       <c r="D27" cm="1">
         <f t="array" aca="1" ref="D27" ca="1">MAX(ABS(B2:U21))</f>
-        <v>0.99590503179818457</v>
+        <v>0.99665951585997981</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D28">
         <f ca="1">1/D27</f>
-        <v>1.0041118059162948</v>
+        <v>1.0033516803751559</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
@@ -3047,7 +3047,7 @@
   <dimension ref="A1:U30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:U21"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7647,7 +7647,7 @@
   <dimension ref="A1:AB32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7747,11 +7747,11 @@
       </c>
       <c r="J2" s="9">
         <f>IF(C7&gt;0,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" s="9">
         <f>IF(C8&gt;0,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" s="9">
         <f>IF(C9&gt;0,1,0)</f>
@@ -7795,7 +7795,7 @@
       </c>
       <c r="V2" s="9">
         <f>IF(C19&gt;0,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W2" s="9">
         <f>IF(C20&gt;0,1,0)</f>
@@ -7819,7 +7819,7 @@
       </c>
       <c r="AB2" s="9">
         <f>F32</f>
-        <v>-7.0680584349999993</v>
+        <v>-7.2994262490000006</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
@@ -8115,22 +8115,22 @@
         <v>-0.64956762000000001</v>
       </c>
       <c r="C7" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>-0.64956762000000001</v>
+        <v>0</v>
       </c>
       <c r="G7" s="7">
         <v>2</v>
       </c>
       <c r="H7" s="3">
         <f>H$2*$C7*'Portfolio Coefficients'!E5*$D$2</f>
-        <v>0.13246169199999999</v>
+        <v>0</v>
       </c>
       <c r="I7" s="3">
         <f>I$2*$C7*'Portfolio Coefficients'!F5*$D$2</f>
-        <v>0.15057030499999999</v>
+        <v>0</v>
       </c>
       <c r="J7" s="3">
         <f>J$2*$C7*'Portfolio Coefficients'!G5*$D$2</f>
@@ -8214,22 +8214,22 @@
         <v>-0.476618808</v>
       </c>
       <c r="C8" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-0.476618808</v>
       </c>
       <c r="G8" s="7">
         <v>3</v>
       </c>
       <c r="H8" s="3">
         <f>H$2*$C8*'Portfolio Coefficients'!E6*$D$2</f>
-        <v>0</v>
+        <v>0.133915228</v>
       </c>
       <c r="I8" s="3">
         <f>I$2*$C8*'Portfolio Coefficients'!F6*$D$2</f>
-        <v>0</v>
+        <v>9.6130212000000007E-2</v>
       </c>
       <c r="J8" s="3">
         <f>J$2*$C8*'Portfolio Coefficients'!G6*$D$2</f>
@@ -8332,11 +8332,11 @@
       </c>
       <c r="J9" s="3">
         <f>J$2*$C9*'Portfolio Coefficients'!G7*$D$2</f>
-        <v>0.178777977</v>
+        <v>0</v>
       </c>
       <c r="K9" s="3">
         <f>K$2*$C9*'Portfolio Coefficients'!H7*$D$2</f>
-        <v>0</v>
+        <v>0.13085614600000001</v>
       </c>
       <c r="L9" s="3">
         <f>L$2*$C9*'Portfolio Coefficients'!I7*$D$2</f>
@@ -8530,11 +8530,11 @@
       </c>
       <c r="J11" s="3">
         <f>J$2*$C11*'Portfolio Coefficients'!G9*$D$2</f>
-        <v>0.203509039</v>
+        <v>0</v>
       </c>
       <c r="K11" s="3">
         <f>K$2*$C11*'Portfolio Coefficients'!H9*$D$2</f>
-        <v>0</v>
+        <v>0.13793602999999999</v>
       </c>
       <c r="L11" s="3">
         <f>L$2*$C11*'Portfolio Coefficients'!I9*$D$2</f>
@@ -9124,11 +9124,11 @@
       </c>
       <c r="J17" s="3">
         <f>J$2*$C17*'Portfolio Coefficients'!G15*$D$2</f>
-        <v>0.29794762299999999</v>
+        <v>0</v>
       </c>
       <c r="K17" s="3">
         <f>K$2*$C17*'Portfolio Coefficients'!H15*$D$2</f>
-        <v>0</v>
+        <v>0.38536680000000001</v>
       </c>
       <c r="L17" s="3">
         <f>L$2*$C17*'Portfolio Coefficients'!I15*$D$2</f>
@@ -9303,26 +9303,26 @@
         <v>-0.66974138299999997</v>
       </c>
       <c r="C19" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
-        <v>-0.66974138299999997</v>
+        <v>0</v>
       </c>
       <c r="G19" s="7">
         <v>14</v>
       </c>
       <c r="H19" s="3">
         <f>H$2*$C19*'Portfolio Coefficients'!E17*$D$2</f>
-        <v>0.42154055899999998</v>
+        <v>0</v>
       </c>
       <c r="I19" s="3">
         <f>I$2*$C19*'Portfolio Coefficients'!F17*$D$2</f>
-        <v>-0.34449146000000003</v>
+        <v>0</v>
       </c>
       <c r="J19" s="3">
         <f>J$2*$C19*'Portfolio Coefficients'!G17*$D$2</f>
-        <v>-0.37042855299999999</v>
+        <v>0</v>
       </c>
       <c r="K19" s="3">
         <f>K$2*$C19*'Portfolio Coefficients'!H17*$D$2</f>
@@ -9330,7 +9330,7 @@
       </c>
       <c r="L19" s="3">
         <f>L$2*$C19*'Portfolio Coefficients'!I17*$D$2</f>
-        <v>-0.39191912899999998</v>
+        <v>0</v>
       </c>
       <c r="M19" s="3">
         <f>M$2*$C19*'Portfolio Coefficients'!J17*$D$2</f>
@@ -9338,7 +9338,7 @@
       </c>
       <c r="N19" s="3">
         <f>N$2*$C19*'Portfolio Coefficients'!K17*$D$2</f>
-        <v>0.43972146099999998</v>
+        <v>0</v>
       </c>
       <c r="O19" s="3">
         <f>O$2*$C19*'Portfolio Coefficients'!L17*$D$2</f>
@@ -9362,7 +9362,7 @@
       </c>
       <c r="T19" s="3">
         <f>T$2*$C19*'Portfolio Coefficients'!Q17*$D$2</f>
-        <v>0.17439331699999999</v>
+        <v>0</v>
       </c>
       <c r="U19" s="3">
         <f>U$2*$C19*'Portfolio Coefficients'!R17*$D$2</f>
@@ -9718,11 +9718,11 @@
       </c>
       <c r="J23" s="3">
         <f>J$2*$C23*'Portfolio Coefficients'!G21*$D$2</f>
-        <v>-0.33626714299999999</v>
+        <v>0</v>
       </c>
       <c r="K23" s="3">
         <f>K$2*$C23*'Portfolio Coefficients'!H21*$D$2</f>
-        <v>0</v>
+        <v>-0.21547585</v>
       </c>
       <c r="L23" s="3">
         <f>L$2*$C23*'Portfolio Coefficients'!I21*$D$2</f>
@@ -9766,7 +9766,7 @@
       </c>
       <c r="V23" s="3">
         <f>V$2*$C23*'Portfolio Coefficients'!S21*$D$2</f>
-        <v>0.24185719899999999</v>
+        <v>0</v>
       </c>
       <c r="W23" s="3">
         <f>W$2*$C23*'Portfolio Coefficients'!T21*$D$2</f>
@@ -9817,11 +9817,11 @@
       </c>
       <c r="J24" s="3">
         <f>J$2*$C24*'Portfolio Coefficients'!G22*$D$2</f>
-        <v>0.30160405499999998</v>
+        <v>0</v>
       </c>
       <c r="K24" s="3">
         <f>K$2*$C24*'Portfolio Coefficients'!H22*$D$2</f>
-        <v>0</v>
+        <v>-0.40305808399999998</v>
       </c>
       <c r="L24" s="3">
         <f>L$2*$C24*'Portfolio Coefficients'!I22*$D$2</f>
@@ -9865,7 +9865,7 @@
       </c>
       <c r="V24" s="3">
         <f>V$2*$C24*'Portfolio Coefficients'!S22*$D$2</f>
-        <v>0.24045154899999999</v>
+        <v>0</v>
       </c>
       <c r="W24" s="3">
         <f>W$2*$C24*'Portfolio Coefficients'!T22*$D$2</f>
@@ -9911,23 +9911,23 @@
     <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="H27">
         <f>SUM(H5:H24)</f>
-        <v>-0.31956327200000018</v>
+        <v>-0.73965029500000012</v>
       </c>
       <c r="I27">
         <f t="shared" ref="I27:AA27" si="1">SUM(I5:I24)</f>
-        <v>-0.97135984900000005</v>
+        <v>-0.68130848199999994</v>
       </c>
       <c r="J27">
         <f t="shared" si="1"/>
-        <v>0.27514299800000003</v>
+        <v>0</v>
       </c>
       <c r="K27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.562504199999994E-2</v>
       </c>
       <c r="L27">
         <f t="shared" si="1"/>
-        <v>-1.073132515</v>
+        <v>-0.68121338600000003</v>
       </c>
       <c r="M27">
         <f t="shared" si="1"/>
@@ -9935,7 +9935,7 @@
       </c>
       <c r="N27">
         <f t="shared" si="1"/>
-        <v>-0.621513435</v>
+        <v>-1.061234896</v>
       </c>
       <c r="O27">
         <f t="shared" si="1"/>
@@ -9959,7 +9959,7 @@
       </c>
       <c r="T27">
         <f t="shared" si="1"/>
-        <v>0.45319295100000001</v>
+        <v>0.27879963400000002</v>
       </c>
       <c r="U27">
         <f t="shared" si="1"/>
@@ -9967,7 +9967,7 @@
       </c>
       <c r="V27">
         <f t="shared" si="1"/>
-        <v>0.48230874800000001</v>
+        <v>0</v>
       </c>
       <c r="W27">
         <f t="shared" si="1"/>
@@ -9994,11 +9994,11 @@
     <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="D29" s="3">
         <f>SUM(D5:D24)</f>
-        <v>-5.5354891549999996</v>
+        <v>-4.6927989600000002</v>
       </c>
       <c r="H29" s="3">
         <f>SUM(H27:AA27)</f>
-        <v>-1.5325692799999997</v>
+        <v>-2.6066272890000004</v>
       </c>
     </row>
     <row r="31" spans="1:27" ht="77.45" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10008,7 +10008,7 @@
       </c>
       <c r="F32" s="3">
         <f>D29+H29</f>
-        <v>-7.0680584349999993</v>
+        <v>-7.2994262490000006</v>
       </c>
       <c r="G32" t="s">
         <v>6</v>
